--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H2">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I2">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J2">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N2">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O2">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P2">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q2">
-        <v>4888.668036956663</v>
+        <v>3639.230731230221</v>
       </c>
       <c r="R2">
-        <v>43998.01233260997</v>
+        <v>32753.07658107199</v>
       </c>
       <c r="S2">
-        <v>0.2928558331947461</v>
+        <v>0.2847568763987391</v>
       </c>
       <c r="T2">
-        <v>0.2928558331947462</v>
+        <v>0.2847568763987391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H3">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I3">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J3">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N3">
         <v>264.024102</v>
       </c>
       <c r="O3">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P3">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q3">
-        <v>850.4641990944446</v>
+        <v>563.3193304662368</v>
       </c>
       <c r="R3">
-        <v>7654.177791850001</v>
+        <v>5069.873974196131</v>
       </c>
       <c r="S3">
-        <v>0.05094708819360849</v>
+        <v>0.04407773642435947</v>
       </c>
       <c r="T3">
-        <v>0.0509470881936085</v>
+        <v>0.04407773642435947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H4">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I4">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J4">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N4">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O4">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P4">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q4">
-        <v>1226.556740108425</v>
+        <v>1198.808362128111</v>
       </c>
       <c r="R4">
-        <v>11039.01066097582</v>
+        <v>10789.275259153</v>
       </c>
       <c r="S4">
-        <v>0.07347692528304693</v>
+        <v>0.09380249558534905</v>
       </c>
       <c r="T4">
-        <v>0.07347692528304693</v>
+        <v>0.09380249558534903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>15.892693</v>
       </c>
       <c r="I5">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J5">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N5">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O5">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P5">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q5">
-        <v>2679.989362368488</v>
+        <v>3011.989792251998</v>
       </c>
       <c r="R5">
-        <v>24119.9042613164</v>
+        <v>27107.90813026798</v>
       </c>
       <c r="S5">
-        <v>0.160544858381931</v>
+        <v>0.2356775011890028</v>
       </c>
       <c r="T5">
-        <v>0.160544858381931</v>
+        <v>0.2356775011890028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>15.892693</v>
       </c>
       <c r="I6">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J6">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N6">
         <v>264.024102</v>
       </c>
       <c r="O6">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P6">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q6">
-        <v>466.2282219651873</v>
+        <v>466.2282219651874</v>
       </c>
       <c r="R6">
-        <v>4196.053997686686</v>
+        <v>4196.053997686687</v>
       </c>
       <c r="S6">
-        <v>0.02792941827310463</v>
+        <v>0.03648070209905747</v>
       </c>
       <c r="T6">
-        <v>0.02792941827310463</v>
+        <v>0.03648070209905747</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>15.892693</v>
       </c>
       <c r="I7">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J7">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N7">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O7">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P7">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q7">
-        <v>672.4038104003274</v>
+        <v>992.187309974599</v>
       </c>
       <c r="R7">
-        <v>6051.634293602947</v>
+        <v>8929.685789771391</v>
       </c>
       <c r="S7">
-        <v>0.04028037425521263</v>
+        <v>0.07763513227294769</v>
       </c>
       <c r="T7">
-        <v>0.04028037425521262</v>
+        <v>0.07763513227294767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H8">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I8">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J8">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N8">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O8">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P8">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q8">
-        <v>4146.904892870521</v>
+        <v>1959.548996815494</v>
       </c>
       <c r="R8">
-        <v>37322.14403583468</v>
+        <v>17635.94097133945</v>
       </c>
       <c r="S8">
-        <v>0.2484204855801567</v>
+        <v>0.1533277477283876</v>
       </c>
       <c r="T8">
-        <v>0.2484204855801567</v>
+        <v>0.1533277477283876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H9">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I9">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J9">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N9">
         <v>264.024102</v>
       </c>
       <c r="O9">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P9">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q9">
-        <v>721.4223018978994</v>
+        <v>303.3200998851588</v>
       </c>
       <c r="R9">
-        <v>6492.800717081093</v>
+        <v>2729.880898966429</v>
       </c>
       <c r="S9">
-        <v>0.04321682873748661</v>
+        <v>0.02373372027528841</v>
       </c>
       <c r="T9">
-        <v>0.04321682873748661</v>
+        <v>0.0237337202752884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H10">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I10">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J10">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N10">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O10">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P10">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q10">
-        <v>1040.44989524496</v>
+        <v>645.5000786905471</v>
       </c>
       <c r="R10">
-        <v>9364.049057204635</v>
+        <v>5809.500708214923</v>
       </c>
       <c r="S10">
-        <v>0.062328188100707</v>
+        <v>0.05050808802686835</v>
       </c>
       <c r="T10">
-        <v>0.062328188100707</v>
+        <v>0.05050808802686834</v>
       </c>
     </row>
   </sheetData>
